--- a/biology/Botanique/Calamus_thysanolepis/Calamus_thysanolepis.xlsx
+++ b/biology/Botanique/Calamus_thysanolepis/Calamus_thysanolepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Calamus thysanolepis est une espèce de palmier cespiteux, de la famille des Arecaceae, originaires des forêts humides de Chine et du Vietnam.
@@ -512,10 +524,12 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Fletcher Hance, consul à Canton et botaniste, décrit et nomme Calamus thysanolepis en 1874 Journal of Botany, British and Foreign 12(141), à partir d’un spécimen trouvé dans l’île de Tai Tam Tuk de Hongkong[1].
-En chinois, le nom vulgaire est 毛鳞省藤 maolinsheng teng[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Fletcher Hance, consul à Canton et botaniste, décrit et nomme Calamus thysanolepis en 1874 Journal of Botany, British and Foreign 12(141), à partir d’un spécimen trouvé dans l’île de Tai Tam Tuk de Hongkong.
+En chinois, le nom vulgaire est 毛鳞省藤 maolinsheng teng.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos, les synonymes sont[3]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos, les synonymes sont:
 Calamus hoplites Dunn
 Calamus scutellaris Becc
 Calamus thysanolepis var. polylepis C.F. Wei
@@ -578,10 +594,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calamus thysanolepis pousse sous forme de tiges cespiteuses, non grimpantes, courtes et souterraines ou bien auto-portantes (dressées), pouvant faire jusqu’à 5 m de long, et d'environ 5 cm de diamètre[2].
-La feuille comporte à la base une gaine foliaire (enveloppant la tige), de couleur brun-verdâtre, armée d’épines aciculaires noires, densément distribuées, pouvant faire jusqu’à 2 cm de long. L’ocrea,  une extension de la gaine foliaire au-dessus du point d'insertion du pétiole, jusqu’à 40 cm, est épineuse, fibreuse, et se désintègre rapidement. Le rachis jusqu'à 1,5 m porte 28–49 pennes lancéolées par côté, celles-ci fortement regroupées et s'étalant dans différents plans ; les pennes médianes de 30 à 37 cm de long, de 1,5 à 2 cm de large à mi-hauteur[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calamus thysanolepis pousse sous forme de tiges cespiteuses, non grimpantes, courtes et souterraines ou bien auto-portantes (dressées), pouvant faire jusqu’à 5 m de long, et d'environ 5 cm de diamètre.
+La feuille comporte à la base une gaine foliaire (enveloppant la tige), de couleur brun-verdâtre, armée d’épines aciculaires noires, densément distribuées, pouvant faire jusqu’à 2 cm de long. L’ocrea,  une extension de la gaine foliaire au-dessus du point d'insertion du pétiole, jusqu’à 40 cm, est épineuse, fibreuse, et se désintègre rapidement. Le rachis jusqu'à 1,5 m porte 28–49 pennes lancéolées par côté, celles-ci fortement regroupées et s'étalant dans différents plans ; les pennes médianes de 30 à 37 cm de long, de 1,5 à 2 cm de large à mi-hauteur.
 Les inflorescences font jusqu’à 1 m de long, non flagellées ; les bractées de l'inflorescence sont fendues et en lambeaux.
 Le fruit est brun rougeâtre, ovoïde ou ellipsoïde, jusqu’à 1,5 x 1 cm. Il est comestible
 </t>
@@ -612,7 +630,9 @@
           <t>Distribution et habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce est originaire de Chine (Fujian, Guangdong, Guangxi, Hunan, Jiangxi, Zhejiang) et du Vietnam.
 Elle pousse dans les forêts humides des basses terres.
